--- a/cal/obsgp_data.xlsx
+++ b/cal/obsgp_data.xlsx
@@ -468,7 +468,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="3">
@@ -644,7 +644,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>1242</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="15">
@@ -660,7 +660,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="16">
@@ -704,7 +704,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="19">
@@ -720,7 +720,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
